--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>210.6104163792565</v>
+        <v>213.367408634138</v>
       </c>
       <c r="R2">
-        <v>210.6104163792565</v>
+        <v>853.469634536552</v>
       </c>
       <c r="S2">
-        <v>0.03166004865901675</v>
+        <v>0.02857159261983558</v>
       </c>
       <c r="T2">
-        <v>0.03166004865901675</v>
+        <v>0.0159903628784633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>292.5840168717066</v>
+        <v>314.5717427456606</v>
       </c>
       <c r="R3">
-        <v>292.5840168717066</v>
+        <v>1887.430456473964</v>
       </c>
       <c r="S3">
-        <v>0.04398274487206781</v>
+        <v>0.04212365768969047</v>
       </c>
       <c r="T3">
-        <v>0.04398274487206781</v>
+        <v>0.03536235700204017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>142.3663702931823</v>
+        <v>148.7536430285137</v>
       </c>
       <c r="R4">
-        <v>142.3663702931823</v>
+        <v>892.5218581710819</v>
       </c>
       <c r="S4">
-        <v>0.02140125017735677</v>
+        <v>0.01991929562501671</v>
       </c>
       <c r="T4">
-        <v>0.02140125017735677</v>
+        <v>0.01672203416688134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>109.0679788322558</v>
+        <v>109.4725467010303</v>
       </c>
       <c r="R5">
-        <v>109.0679788322558</v>
+        <v>656.8352802061819</v>
       </c>
       <c r="S5">
-        <v>0.01639566350199729</v>
+        <v>0.0146592444807774</v>
       </c>
       <c r="T5">
-        <v>0.01639566350199729</v>
+        <v>0.01230627787663153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H6">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I6">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J6">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>110.6166298068408</v>
+        <v>115.3053659323443</v>
       </c>
       <c r="R6">
-        <v>110.6166298068408</v>
+        <v>691.832195594066</v>
       </c>
       <c r="S6">
-        <v>0.0166284647378246</v>
+        <v>0.01544030535586169</v>
       </c>
       <c r="T6">
-        <v>0.0166284647378246</v>
+        <v>0.01296197007004275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H7">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I7">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J7">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>49.61818528311052</v>
+        <v>50.0085492993565</v>
       </c>
       <c r="R7">
-        <v>49.61818528311052</v>
+        <v>200.034197197426</v>
       </c>
       <c r="S7">
-        <v>0.007458862612030384</v>
+        <v>0.006696542397157705</v>
       </c>
       <c r="T7">
-        <v>0.007458862612030384</v>
+        <v>0.003747783485027947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>19.58186643296295</v>
+        <v>21.98047012501267</v>
       </c>
       <c r="R8">
-        <v>19.58186643296295</v>
+        <v>131.882820750076</v>
       </c>
       <c r="S8">
-        <v>0.002943647587617776</v>
+        <v>0.002943359728763412</v>
       </c>
       <c r="T8">
-        <v>0.002943647587617776</v>
+        <v>0.00247091879534084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>27.20350321365128</v>
+        <v>32.40623691245355</v>
       </c>
       <c r="R9">
-        <v>27.20350321365128</v>
+        <v>291.656132212082</v>
       </c>
       <c r="S9">
-        <v>0.004089371505201325</v>
+        <v>0.00433945280271057</v>
       </c>
       <c r="T9">
-        <v>0.004089371505201325</v>
+        <v>0.005464385844650136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J10">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>13.23675863498941</v>
+        <v>15.32415389728789</v>
       </c>
       <c r="R10">
-        <v>13.23675863498941</v>
+        <v>137.917385075591</v>
       </c>
       <c r="S10">
-        <v>0.001989818118571939</v>
+        <v>0.002052026057774052</v>
       </c>
       <c r="T10">
-        <v>0.001989818118571939</v>
+        <v>0.002583980665937809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J11">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>10.14078330181213</v>
+        <v>11.27753323562678</v>
       </c>
       <c r="R11">
-        <v>10.14078330181213</v>
+        <v>101.497799120641</v>
       </c>
       <c r="S11">
-        <v>0.001524415070704633</v>
+        <v>0.001510151374231158</v>
       </c>
       <c r="T11">
-        <v>0.001524415070704633</v>
+        <v>0.001901633723835683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H12">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J12">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>10.28477179514948</v>
+        <v>11.87841276863145</v>
       </c>
       <c r="R12">
-        <v>10.28477179514948</v>
+        <v>106.905714917683</v>
       </c>
       <c r="S12">
-        <v>0.00154606016681987</v>
+        <v>0.001590613921630066</v>
       </c>
       <c r="T12">
-        <v>0.00154606016681987</v>
+        <v>0.002002954886899478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H13">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J13">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>4.613336289645998</v>
+        <v>5.151730673893834</v>
       </c>
       <c r="R13">
-        <v>4.613336289645998</v>
+        <v>30.910384043363</v>
       </c>
       <c r="S13">
-        <v>0.0006935006061029076</v>
+        <v>0.0006898577015292826</v>
       </c>
       <c r="T13">
-        <v>0.0006935006061029076</v>
+        <v>0.0005791281113761378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H14">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I14">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J14">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>317.9461074953091</v>
+        <v>322.6754607372193</v>
       </c>
       <c r="R14">
-        <v>317.9461074953091</v>
+        <v>1936.052764423316</v>
       </c>
       <c r="S14">
-        <v>0.04779530569902952</v>
+        <v>0.04320880996595897</v>
       </c>
       <c r="T14">
-        <v>0.04779530569902952</v>
+        <v>0.03627333065199401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H15">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I15">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J15">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>441.6968110076028</v>
+        <v>475.7267413760291</v>
       </c>
       <c r="R15">
-        <v>441.6968110076028</v>
+        <v>4281.540672384262</v>
       </c>
       <c r="S15">
-        <v>0.06639815242495557</v>
+        <v>0.06370359343991709</v>
       </c>
       <c r="T15">
-        <v>0.06639815242495557</v>
+        <v>0.08021772100597442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H16">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I16">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J16">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>214.9221014379579</v>
+        <v>224.9600846156868</v>
       </c>
       <c r="R16">
-        <v>214.9221014379579</v>
+        <v>2024.640761541181</v>
       </c>
       <c r="S16">
-        <v>0.03230820348966399</v>
+        <v>0.03012394411362211</v>
       </c>
       <c r="T16">
-        <v>0.03230820348966399</v>
+        <v>0.03793309001925039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H17">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I17">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J17">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>164.6534863672204</v>
+        <v>165.5552957734145</v>
       </c>
       <c r="R17">
-        <v>164.6534863672204</v>
+        <v>1489.997661960731</v>
       </c>
       <c r="S17">
-        <v>0.02475156490301865</v>
+        <v>0.02216917052690669</v>
       </c>
       <c r="T17">
-        <v>0.02475156490301865</v>
+        <v>0.02791616987727005</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H18">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I18">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J18">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>166.9913932841862</v>
+        <v>174.3762663467059</v>
       </c>
       <c r="R18">
-        <v>166.9913932841862</v>
+        <v>1569.386397120353</v>
       </c>
       <c r="S18">
-        <v>0.02510301118010164</v>
+        <v>0.02335036862714605</v>
       </c>
       <c r="T18">
-        <v>0.02510301118010164</v>
+        <v>0.02940357450456404</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H19">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I19">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J19">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>74.9056439988114</v>
+        <v>75.62791238487216</v>
       </c>
       <c r="R19">
-        <v>74.9056439988114</v>
+        <v>453.767474309233</v>
       </c>
       <c r="S19">
-        <v>0.01126020438403602</v>
+        <v>0.01012717882820771</v>
       </c>
       <c r="T19">
-        <v>0.01126020438403602</v>
+        <v>0.008501657566983602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H20">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I20">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J20">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>377.8203593098958</v>
+        <v>403.233137213544</v>
       </c>
       <c r="R20">
-        <v>377.8203593098958</v>
+        <v>2419.398823281264</v>
       </c>
       <c r="S20">
-        <v>0.05679591335396381</v>
+        <v>0.0539961234053265</v>
       </c>
       <c r="T20">
-        <v>0.05679591335396381</v>
+        <v>0.04532916411607569</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H21">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I21">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J21">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>524.875266300877</v>
+        <v>594.4944990336719</v>
       </c>
       <c r="R21">
-        <v>524.875266300877</v>
+        <v>5350.450491303048</v>
       </c>
       <c r="S21">
-        <v>0.07890196865228193</v>
+        <v>0.07960754057921136</v>
       </c>
       <c r="T21">
-        <v>0.07890196865228193</v>
+        <v>0.1002445095374085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H22">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I22">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J22">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>255.3953128365478</v>
+        <v>281.122588188636</v>
       </c>
       <c r="R22">
-        <v>255.3953128365478</v>
+        <v>2530.103293697724</v>
       </c>
       <c r="S22">
-        <v>0.03839234626044973</v>
+        <v>0.03764454992154974</v>
       </c>
       <c r="T22">
-        <v>0.03839234626044973</v>
+        <v>0.04740329139910263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H23">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I23">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J23">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>195.6603270628437</v>
+        <v>206.887072058436</v>
       </c>
       <c r="R23">
-        <v>195.6603270628437</v>
+        <v>1861.983648525924</v>
       </c>
       <c r="S23">
-        <v>0.02941267379811744</v>
+        <v>0.02770382402356481</v>
       </c>
       <c r="T23">
-        <v>0.02941267379811744</v>
+        <v>0.03488559288915093</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H24">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I24">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J24">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>198.4384986163801</v>
+        <v>217.910245712268</v>
       </c>
       <c r="R24">
-        <v>198.4384986163801</v>
+        <v>1961.192211410412</v>
       </c>
       <c r="S24">
-        <v>0.029830302935746</v>
+        <v>0.02917991462723821</v>
       </c>
       <c r="T24">
-        <v>0.029830302935746</v>
+        <v>0.03674433613786093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H25">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I25">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J25">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>89.01155467169103</v>
+        <v>94.50883033432198</v>
       </c>
       <c r="R25">
-        <v>89.01155467169103</v>
+        <v>567.052982005932</v>
       </c>
       <c r="S25">
-        <v>0.01338067793876709</v>
+        <v>0.01265548387438856</v>
       </c>
       <c r="T25">
-        <v>0.01338067793876709</v>
+        <v>0.01062414242600829</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H26">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I26">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J26">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>282.5232989106747</v>
+        <v>298.0381377996147</v>
       </c>
       <c r="R26">
-        <v>282.5232989106747</v>
+        <v>1788.228826797688</v>
       </c>
       <c r="S26">
-        <v>0.04247036563809234</v>
+        <v>0.03990967651946529</v>
       </c>
       <c r="T26">
-        <v>0.04247036563809234</v>
+        <v>0.03350374365193552</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H27">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I27">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J27">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>392.4867681106423</v>
+        <v>439.4034544097462</v>
       </c>
       <c r="R27">
-        <v>392.4867681106423</v>
+        <v>3954.631089687716</v>
       </c>
       <c r="S27">
-        <v>0.05900064389040845</v>
+        <v>0.05883961648834077</v>
       </c>
       <c r="T27">
-        <v>0.05900064389040845</v>
+        <v>0.07409283659974322</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H28">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I28">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J28">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>190.9773375915991</v>
+        <v>207.7836490724176</v>
       </c>
       <c r="R28">
-        <v>190.9773375915991</v>
+        <v>1870.052841651758</v>
       </c>
       <c r="S28">
-        <v>0.02870870256498394</v>
+        <v>0.02782388281492276</v>
       </c>
       <c r="T28">
-        <v>0.02870870256498394</v>
+        <v>0.03503677498280392</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H29">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I29">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J29">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>146.309217345261</v>
+        <v>152.9146094420731</v>
       </c>
       <c r="R29">
-        <v>146.309217345261</v>
+        <v>1376.231484978658</v>
       </c>
       <c r="S29">
-        <v>0.02199395936843061</v>
+        <v>0.02047648211396589</v>
       </c>
       <c r="T29">
-        <v>0.02199395936843061</v>
+        <v>0.02578467933604341</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H30">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I30">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J30">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>148.3866548705404</v>
+        <v>161.0620701669838</v>
       </c>
       <c r="R30">
-        <v>148.3866548705404</v>
+        <v>1449.558631502854</v>
       </c>
       <c r="S30">
-        <v>0.02230625053743896</v>
+        <v>0.02156749189005319</v>
       </c>
       <c r="T30">
-        <v>0.02230625053743896</v>
+        <v>0.02715851577300211</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H31">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I31">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J31">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>66.56030424868467</v>
+        <v>69.85347482378234</v>
       </c>
       <c r="R31">
-        <v>66.56030424868467</v>
+        <v>419.120848942694</v>
       </c>
       <c r="S31">
-        <v>0.01000568968762491</v>
+        <v>0.00935393572299179</v>
       </c>
       <c r="T31">
-        <v>0.01000568968762491</v>
+        <v>0.007852528307187539</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H32">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I32">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J32">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>322.9289722404916</v>
+        <v>415.34897649289</v>
       </c>
       <c r="R32">
-        <v>322.9289722404916</v>
+        <v>1661.39590597156</v>
       </c>
       <c r="S32">
-        <v>0.04854435573656277</v>
+        <v>0.05561853062465237</v>
       </c>
       <c r="T32">
-        <v>0.04854435573656277</v>
+        <v>0.03112743833669546</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H33">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I33">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J33">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>448.6191019737275</v>
+        <v>612.3571177969033</v>
       </c>
       <c r="R33">
-        <v>448.6191019737275</v>
+        <v>3674.14270678142</v>
       </c>
       <c r="S33">
-        <v>0.06743874705739164</v>
+        <v>0.08199948726729062</v>
       </c>
       <c r="T33">
-        <v>0.06743874705739164</v>
+        <v>0.06883768651077664</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H34">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I34">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J34">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>218.2903696348929</v>
+        <v>289.5694041418683</v>
       </c>
       <c r="R34">
-        <v>218.2903696348929</v>
+        <v>1737.41642485121</v>
       </c>
       <c r="S34">
-        <v>0.03281453901116806</v>
+        <v>0.03877564574305033</v>
       </c>
       <c r="T34">
-        <v>0.03281453901116806</v>
+        <v>0.03255173702747988</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H35">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I35">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J35">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>167.2339427183103</v>
+        <v>213.1033531194517</v>
       </c>
       <c r="R35">
-        <v>167.2339427183103</v>
+        <v>1278.62011871671</v>
       </c>
       <c r="S35">
-        <v>0.02513947246733807</v>
+        <v>0.02853623348676585</v>
       </c>
       <c r="T35">
-        <v>0.02513947246733807</v>
+        <v>0.02395586070626439</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H36">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I36">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J36">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>169.6084894106325</v>
+        <v>224.4577371526217</v>
       </c>
       <c r="R36">
-        <v>169.6084894106325</v>
+        <v>1346.74642291573</v>
       </c>
       <c r="S36">
-        <v>0.02549642662523048</v>
+        <v>0.03005667579387177</v>
       </c>
       <c r="T36">
-        <v>0.02549642662523048</v>
+        <v>0.02523225564948044</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H37">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I37">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J37">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>76.07956839636789</v>
+        <v>97.3485121291325</v>
       </c>
       <c r="R37">
-        <v>76.07956839636789</v>
+        <v>389.39404851653</v>
       </c>
       <c r="S37">
-        <v>0.01143667477988633</v>
+        <v>0.0130357398466135</v>
       </c>
       <c r="T37">
-        <v>0.01143667477988633</v>
+        <v>0.007295575479817015</v>
       </c>
     </row>
   </sheetData>
